--- a/results/MMR results/gamm_MMR_model_selection.xlsx
+++ b/results/MMR results/gamm_MMR_model_selection.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">model</t>
   </si>
@@ -44,103 +44,46 @@
     <t xml:space="preserve">df.residual</t>
   </si>
   <si>
-    <t xml:space="preserve">mean_mmr ~ fish_basin + s(doy, by = fish_basin, bs = "cc", k = 17) + s(floy_tag, year, by = fish_basin, bs = c("re", "re"), k = c(20, 4)) + ti(doy, fish_basin, bs = c("cc", "fs"), k = c(20, 3)) + ACF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_mmr ~ fish_basin + s(doy, by = fish_basin, bs = "cc", k = 17) + s(floy_tag, year, by = fish_basin, bs = c("re", "re"), k = c(20, 4)) + ti(doy, fish_basin, bs = c("cc", "fs"), k = c(20, 3))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_mmr ~ fish_basin + s(doy, by = fish_basin, bs = "cc", k = 17) + s(floy_tag, year, by = fish_basin, bs = c("re", "re"), k = c(20, 4)) + ACF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_mmr ~ s(doy, by = fish_basin, bs = "cc", k = 17) + s(floy_tag, year, by = fish_basin, bs = c("re", "re"), k = c(20, 4)) + ACF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_mmr ~ fish_basin + s(doy, by = fish_basin, bs = "cc", k = 17) + s(floy_tag, year, by = fish_basin, bs = c("re", "re"), k = c(20, 4))</t>
+    <t xml:space="preserve">mean_smr ~ s(doy, bs = "cc", k = 18) + s(floy_tag, bs = c("re"), k = c(20)) + s(year, bs = c("re"), k = c(4)) + ACF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean_smr ~ s(doy, bs = "cc", k = 18) + s(floy_tag, bs = c("re"), k = c(20)) + s(year, bs = c("re"), k = c(4))</t>
   </si>
   <si>
     <t xml:space="preserve">m</t>
   </si>
   <si>
-    <t xml:space="preserve">mean_mmr ~ s(doy, by = fish_basin, bs = "cc", k = 17) + s(floy_tag, year, by = fish_basin, bs = c("re", "re"), k = c(20, 4))</t>
+    <t xml:space="preserve">mean_smr ~ s(doy, bs = "cc", k = 17) + s(floy_tag, bs = c("re"), k = c(20))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean_smr ~ s(doy, bs = "cc", k = 17) + s(year, bs = c("re"), k = c(4))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean_smr ~ s(floy_tag, bs = c("re"), k = c(20)) + s(year, bs = c("re"), k = c(4))</t>
   </si>
   <si>
     <t xml:space="preserve">m3</t>
   </si>
   <si>
-    <t xml:space="preserve">mean_mmr ~ fish_basin + s(doy, bs = "cc", k = 17) + s(floy_tag, year, bs = c("re", "re"), k = c(20, 4))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_mmr ~ fish_basin + s(doy, by = fish_basin, bs = "cc", k = 17) + ti(doy, fish_basin, bs = c("cc", "fs"), k = c(20, 3))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_mmr ~ s(doy, bs = "cc", k = 17) + ti(doy, fish_basin, bs = c("cc", "fs"), k = c(20, 3))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_mmr ~ s(doy, by = fish_basin, bs = "cc", k = 17) + ti(doy, fish_basin, bs = c("cc", "fs"), k = c(20, 3))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_mmr ~ fish_basin + ti(doy, fish_basin, bs = c("cc", "fs"), k = c(20, 3))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_mmr ~ fish_basin + s(doy, by = fish_basin, bs = "cc", k = 17)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_mmr ~ s(doy, by = fish_basin, bs = "cc", k = 17)</t>
+    <t xml:space="preserve">mean_smr ~ s(floy_tag, bs = c("re"), k = c(20))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean_smr ~ s(year, bs = c("re"), k = c(4))</t>
   </si>
   <si>
     <t xml:space="preserve">m4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_mmr ~ s(doy, bs = "cc", k = 17)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_mmr ~ s(floy_tag, year, by = fish_basin, bs = c("re", "re"), k = c(20, 4))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_mmr ~ fish_basin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m2</t>
   </si>
 </sst>
 </file>
@@ -512,28 +455,28 @@
         <v>11</v>
       </c>
       <c r="C2" t="n">
-        <v>77.042400921857</v>
+        <v>37.465210954469</v>
       </c>
       <c r="D2" t="n">
-        <v>-71874.1777766593</v>
+        <v>-48206.7848450704</v>
       </c>
       <c r="E2" t="n">
-        <v>143906.082938554</v>
+        <v>96490.8871070334</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.999999720011507</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>144514.615218334</v>
+        <v>96789.1875188374</v>
       </c>
       <c r="I2" t="n">
-        <v>323.207389548054</v>
+        <v>184.599446457641</v>
       </c>
       <c r="J2" t="n">
-        <v>16507.9575990781</v>
+        <v>16547.5347890455</v>
       </c>
     </row>
     <row r="3">
@@ -544,28 +487,28 @@
         <v>13</v>
       </c>
       <c r="C3" t="n">
-        <v>77.347305614392</v>
+        <v>37.6726173465838</v>
       </c>
       <c r="D3" t="n">
-        <v>-71888.9824531271</v>
+        <v>-48645.9794410483</v>
       </c>
       <c r="E3" t="n">
-        <v>143936.259972659</v>
+        <v>97369.5365915749</v>
       </c>
       <c r="F3" t="n">
-        <v>30.1770341056108</v>
+        <v>878.649484541427</v>
       </c>
       <c r="G3" t="n">
-        <v>0.000000279988492511779</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000159841176784288</v>
       </c>
       <c r="H3" t="n">
-        <v>144546.982438475</v>
+        <v>97668.8412452255</v>
       </c>
       <c r="I3" t="n">
-        <v>322.999272454536</v>
+        <v>184.289959691076</v>
       </c>
       <c r="J3" t="n">
-        <v>16507.6526943856</v>
+        <v>16547.3273826534</v>
       </c>
     </row>
     <row r="4">
@@ -576,28 +519,28 @@
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>63.0098968664337</v>
+        <v>33.872733319589</v>
       </c>
       <c r="D4" t="n">
-        <v>-72048.1415749724</v>
+        <v>-48779.2436655348</v>
       </c>
       <c r="E4" t="n">
-        <v>144224.984608232</v>
+        <v>97628.2818765702</v>
       </c>
       <c r="F4" t="n">
-        <v>318.901669678482</v>
+        <v>1137.39476953672</v>
       </c>
       <c r="G4" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000564133867096213</v>
+        <v>1.04199089070494e-247</v>
       </c>
       <c r="H4" t="n">
-        <v>144721.531176261</v>
+        <v>97897.5580953219</v>
       </c>
       <c r="I4" t="n">
-        <v>330.065932908724</v>
+        <v>187.26253385263</v>
       </c>
       <c r="J4" t="n">
-        <v>16521.9901031336</v>
+        <v>16551.1272666804</v>
       </c>
     </row>
     <row r="5">
@@ -608,28 +551,28 @@
         <v>17</v>
       </c>
       <c r="C5" t="n">
-        <v>62.9975513607519</v>
+        <v>18.6891415517856</v>
       </c>
       <c r="D5" t="n">
-        <v>-72048.1711752535</v>
+        <v>-55449.9250669379</v>
       </c>
       <c r="E5" t="n">
-        <v>144225.02233985</v>
+        <v>110939.591286128</v>
       </c>
       <c r="F5" t="n">
-        <v>318.939401296288</v>
+        <v>14448.7041790948</v>
       </c>
       <c r="G5" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000553590789908441</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>144721.486077966</v>
+        <v>111092.917697678</v>
       </c>
       <c r="I5" t="n">
-        <v>330.067163702169</v>
+        <v>418.23632326114</v>
       </c>
       <c r="J5" t="n">
-        <v>16522.0024486392</v>
+        <v>16566.3108584482</v>
       </c>
     </row>
     <row r="6">
@@ -640,28 +583,28 @@
         <v>19</v>
       </c>
       <c r="C6" t="n">
-        <v>63.0392250950014</v>
+        <v>21.7785644845579</v>
       </c>
       <c r="D6" t="n">
-        <v>-72066.2945428436</v>
+        <v>-58691.3490808964</v>
       </c>
       <c r="E6" t="n">
-        <v>144261.328536195</v>
+        <v>117428.520626175</v>
       </c>
       <c r="F6" t="n">
-        <v>355.245597641391</v>
+        <v>20937.6335191416</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000723433291143198</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>144758.021683035</v>
+        <v>117605.3095121</v>
       </c>
       <c r="I6" t="n">
-        <v>329.94397978537</v>
+        <v>614.379390801893</v>
       </c>
       <c r="J6" t="n">
-        <v>16521.960774905</v>
+        <v>16563.2214355154</v>
       </c>
     </row>
     <row r="7">
@@ -672,28 +615,28 @@
         <v>21</v>
       </c>
       <c r="C7" t="n">
-        <v>63.0269494649504</v>
+        <v>18.8964779200424</v>
       </c>
       <c r="D7" t="n">
-        <v>-72066.313311141</v>
+        <v>-58724.9126403993</v>
       </c>
       <c r="E7" t="n">
-        <v>144261.344813444</v>
+        <v>117489.635747335</v>
       </c>
       <c r="F7" t="n">
-        <v>355.261874890071</v>
+        <v>20998.7486403016</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000717569433585504</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144757.955939027</v>
+        <v>117643.229582194</v>
       </c>
       <c r="I7" t="n">
-        <v>329.94474449096</v>
+        <v>616.892583081102</v>
       </c>
       <c r="J7" t="n">
-        <v>16521.973050535</v>
+        <v>16566.10352208</v>
       </c>
     </row>
     <row r="8">
@@ -704,348 +647,28 @@
         <v>23</v>
       </c>
       <c r="C8" t="n">
-        <v>33.8653850319325</v>
+        <v>3.87294913562238</v>
       </c>
       <c r="D8" t="n">
-        <v>-72759.3015186518</v>
+        <v>-61356.9326093185</v>
       </c>
       <c r="E8" t="n">
-        <v>145588.402361863</v>
+        <v>122723.850971654</v>
       </c>
       <c r="F8" t="n">
-        <v>1682.3194233095</v>
+        <v>26232.9638646207</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>145857.697018832</v>
+        <v>122762.377274742</v>
       </c>
       <c r="I8" t="n">
-        <v>358.79483430184</v>
+        <v>844.572202574799</v>
       </c>
       <c r="J8" t="n">
-        <v>16551.1346149681</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="n">
-        <v>58.8027592973558</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-76351.9052598247</v>
-      </c>
-      <c r="E9" t="n">
-        <v>152825.533781993</v>
-      </c>
-      <c r="F9" t="n">
-        <v>8919.45084343915</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>153295.157584009</v>
-      </c>
-      <c r="I9" t="n">
-        <v>553.416973551424</v>
-      </c>
-      <c r="J9" t="n">
-        <v>16526.1972407026</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="n">
-        <v>54.8155705329254</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-76367.494450116</v>
-      </c>
-      <c r="E10" t="n">
-        <v>152847.767719796</v>
-      </c>
-      <c r="F10" t="n">
-        <v>8941.68478124216</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>153282.882725841</v>
-      </c>
-      <c r="I10" t="n">
-        <v>554.546404640524</v>
-      </c>
-      <c r="J10" t="n">
-        <v>16530.1844294671</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="n">
-        <v>56.7870713229577</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-76365.1819346085</v>
-      </c>
-      <c r="E11" t="n">
-        <v>152848.029104153</v>
-      </c>
-      <c r="F11" t="n">
-        <v>8941.94616559928</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>153301.99652116</v>
-      </c>
-      <c r="I11" t="n">
-        <v>554.369213407515</v>
-      </c>
-      <c r="J11" t="n">
-        <v>16528.212928677</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="n">
-        <v>55.2622400188257</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-76393.234723753</v>
-      </c>
-      <c r="E12" t="n">
-        <v>152899.237078707</v>
-      </c>
-      <c r="F12" t="n">
-        <v>8993.15414015364</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>153334.308918629</v>
-      </c>
-      <c r="I12" t="n">
-        <v>556.162911063512</v>
-      </c>
-      <c r="J12" t="n">
-        <v>16529.7377599812</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="n">
-        <v>46.7339403011319</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-76440.1070354165</v>
-      </c>
-      <c r="E13" t="n">
-        <v>152976.569573314</v>
-      </c>
-      <c r="F13" t="n">
-        <v>9070.48663475999</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>153348.32133669</v>
-      </c>
-      <c r="I13" t="n">
-        <v>559.30289663045</v>
-      </c>
-      <c r="J13" t="n">
-        <v>16538.2660596989</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" t="n">
-        <v>44.7283224603324</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-76453.8909697784</v>
-      </c>
-      <c r="E14" t="n">
-        <v>153000.12535424</v>
-      </c>
-      <c r="F14" t="n">
-        <v>9094.04241568618</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>153356.397973456</v>
-      </c>
-      <c r="I14" t="n">
-        <v>560.297845497126</v>
-      </c>
-      <c r="J14" t="n">
-        <v>16540.2716775397</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" t="n">
-        <v>15.8919114776946</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-76829.2534518665</v>
-      </c>
-      <c r="E15" t="n">
-        <v>153692.375334575</v>
-      </c>
-      <c r="F15" t="n">
-        <v>9786.29239602145</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>153823.044041231</v>
-      </c>
-      <c r="I15" t="n">
-        <v>586.153103154307</v>
-      </c>
-      <c r="J15" t="n">
-        <v>16569.1080885223</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" t="n">
-        <v>15.8919114776946</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-76829.2534518665</v>
-      </c>
-      <c r="E16" t="n">
-        <v>153692.375334575</v>
-      </c>
-      <c r="F16" t="n">
-        <v>9786.29239602145</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>153823.044041231</v>
-      </c>
-      <c r="I16" t="n">
-        <v>586.153103154307</v>
-      </c>
-      <c r="J16" t="n">
-        <v>16569.1080885223</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" t="n">
-        <v>18.8244318667893</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-81758.3757091284</v>
-      </c>
-      <c r="E17" t="n">
-        <v>163556.478411494</v>
-      </c>
-      <c r="F17" t="n">
-        <v>19650.3954729408</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>163709.750195768</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1049.7880914983</v>
-      </c>
-      <c r="J17" t="n">
-        <v>16566.1755681332</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3</v>
-      </c>
-      <c r="D18" t="n">
-        <v>-83709.7963001842</v>
-      </c>
-      <c r="E18" t="n">
-        <v>167427.592600368</v>
-      </c>
-      <c r="F18" t="n">
-        <v>23521.5096618148</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>167458.457616174</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1320.74450775377</v>
-      </c>
-      <c r="J18" t="n">
-        <v>16582</v>
+        <v>16581.1270508644</v>
       </c>
     </row>
   </sheetData>
